--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>368410.2651923153</v>
+        <v>372593.4751748556</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462389</v>
+        <v>3854815.050462391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7709636.479155217</v>
+        <v>7709636.479155215</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>354.7317660507014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>289.1043232126787</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>135.082025980221</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>86.64940239199063</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,13 +901,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>161.5843051175316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>316.5487336740557</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>113.5077415695497</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>312.1350518117866</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1376,19 +1378,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>144.082643454443</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>336.7484257707731</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1455,7 +1457,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>135.082025980221</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>29.75695804534799</v>
+        <v>408.4320078302034</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1856,10 +1858,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>320.5127299397338</v>
       </c>
       <c r="H17" t="n">
-        <v>293.0683194783568</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>97.61153143263809</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>207.8553369642807</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -2318,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>19.73044033344624</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>311.7727849666131</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2476,7 +2478,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>56.02993083350963</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>161.4085122120593</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>162.1147045466214</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.7349619690957</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>347.6801450087829</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>205.8548920239012</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>159.3149947016333</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>24.10176446544332</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>212.4527546990485</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.0074039714629</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>137.4348246626608</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>349.7480363891209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>43.20348927404955</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3363,7 +3365,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3439,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>95.69598721795528</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>201.725793325754</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -3563,10 +3565,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>45.42809734483827</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>90.71958203348821</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>210.3821904529397</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>30.69491433802189</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3833,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488549</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>38.44859076233502</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>310.0671604314496</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>234.7490714906996</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -4144,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1965.153759365783</v>
+        <v>808.2114101877278</v>
       </c>
       <c r="C2" t="n">
-        <v>1571.978257868714</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="D2" t="n">
-        <v>1571.978257868714</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E2" t="n">
-        <v>1169.394732985258</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F2" t="n">
-        <v>752.5002945152361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>339.3375390032392</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.64850507718</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.64850507718</v>
+        <v>1208.706155899125</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>1263.630217479597</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N3" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>1951.406783011507</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>1783.152729110953</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>1627.674178072447</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>1494.579752709525</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K4" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M4" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O4" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P4" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.488471598613</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="C5" t="n">
-        <v>47.31297010154361</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154361</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.42141205333</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.926531456352</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1237.473926389409</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.9832173100099</v>
+        <v>2045.90230944682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4753,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>330.643372170366</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.028140721749</v>
+        <v>1141.217531504962</v>
       </c>
       <c r="C8" t="n">
-        <v>1857.028140721749</v>
+        <v>748.0420300078927</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>362.6009012245604</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>362.6009012245604</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>503.6092283712875</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V8" t="n">
-        <v>1857.028140721749</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.028140721749</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.028140721749</v>
+        <v>1938.202986295758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.028140721749</v>
+        <v>1541.712277216359</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1109.804740980837</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C11" t="n">
-        <v>716.6292394837676</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D11" t="n">
-        <v>331.1881107004353</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E11" t="n">
-        <v>331.1881107004353</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>331.1881107004353</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>758.8032691226673</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1304.804169167248</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>1848.402259356717</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>1506.295450060236</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>1506.295450060236</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1506.295450060236</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y11" t="n">
-        <v>1109.804740980837</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E12" t="n">
         <v>429.4892645340348</v>
@@ -5112,34 +5114,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>367.0521161637701</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M12" t="n">
-        <v>952.5501211703722</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
         <v>2341.731461975244</v>
@@ -5160,10 +5162,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>952.9534263337243</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C14" t="n">
-        <v>952.9534263337243</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="D14" t="n">
-        <v>952.9534263337243</v>
+        <v>1186.537129085381</v>
       </c>
       <c r="E14" t="n">
-        <v>952.9534263337243</v>
+        <v>783.9536042019251</v>
       </c>
       <c r="F14" t="n">
-        <v>922.895892954585</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G14" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M14" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N14" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.896740480066</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>1349.444135413123</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>952.9534263337243</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5342,43 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G15" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>480.1670983834974</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>1065.6651033901</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
         <v>2341.731461975244</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U16" t="n">
-        <v>830.7030395665587</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V16" t="n">
-        <v>564.7236943873829</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W16" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>1969.157795997781</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.982294500712</v>
+        <v>1575.982294500711</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.982294500712</v>
+        <v>1190.541165717379</v>
       </c>
       <c r="E17" t="n">
-        <v>1173.398769617256</v>
+        <v>787.9576408339233</v>
       </c>
       <c r="F17" t="n">
-        <v>756.5043311472342</v>
+        <v>371.063202363901</v>
       </c>
       <c r="G17" t="n">
-        <v>343.3415756352373</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
         <v>1969.157795997781</v>
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V19" t="n">
-        <v>330.643372170366</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>371.396020535053</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C20" t="n">
-        <v>371.396020535053</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V20" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W20" t="n">
-        <v>1557.834080392792</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.381475325849</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y20" t="n">
-        <v>771.8907662464499</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="21">
@@ -5823,16 +5825,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
         <v>530.8790559998569</v>
@@ -5841,10 +5843,10 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
         <v>2365.648505077179</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5938,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4295905742738</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X22" t="n">
-        <v>431.3492683572568</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>460.4757256135405</v>
+        <v>1177.734277544119</v>
       </c>
       <c r="C23" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D23" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E23" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -5996,43 +5998,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>899.6156178475343</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>1427.426901484996</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>1867.466502377325</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2215.653994508847</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>1943.38222045283</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="V23" t="n">
-        <v>1943.38222045283</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="W23" t="n">
-        <v>1572.383185421117</v>
+        <v>1974.719732334915</v>
       </c>
       <c r="X23" t="n">
-        <v>1257.461180404336</v>
+        <v>1974.719732334915</v>
       </c>
       <c r="Y23" t="n">
-        <v>860.9704713249373</v>
+        <v>1578.229023255516</v>
       </c>
     </row>
     <row r="24">
@@ -6060,13 +6062,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
         <v>367.0521161637701</v>
@@ -6075,16 +6077,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.116207068686</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1921.02851283761</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C25" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D25" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E25" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F25" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G25" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H25" t="n">
-        <v>1597.29590789855</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>2106.236531528912</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>2106.236531528912</v>
+        <v>859.9184901272292</v>
       </c>
       <c r="X25" t="n">
-        <v>2106.236531528912</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y25" t="n">
-        <v>2106.236531528912</v>
+        <v>402.7261067268556</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>210.3518713258459</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="C26" t="n">
-        <v>47.31297010154361</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V26" t="n">
         <v>1767.788966215297</v>
       </c>
       <c r="W26" t="n">
-        <v>1396.789931183585</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X26" t="n">
-        <v>1007.337326116642</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y26" t="n">
-        <v>610.8466170372428</v>
+        <v>1767.788966215297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.116207068686</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.3381842117413</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C28" t="n">
-        <v>176.3381842117413</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D28" t="n">
-        <v>176.3381842117413</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E28" t="n">
-        <v>176.3381842117413</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6415,19 +6417,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>682.7806474639203</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W28" t="n">
-        <v>399.450245395098</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X28" t="n">
-        <v>399.450245395098</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.3381842117413</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1579.705190930838</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.529689433769</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D29" t="n">
-        <v>801.0885606504364</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5050357669809</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F29" t="n">
-        <v>398.5050357669809</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1759.095218410943</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.64850507718</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X29" t="n">
-        <v>1976.195900010237</v>
+        <v>579.3302549026299</v>
       </c>
       <c r="Y29" t="n">
-        <v>1579.705190930838</v>
+        <v>371.396020535053</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>623.643757208308</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6582,10 +6584,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X30" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1625.125719607984</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535628</v>
+        <v>227.1367377718105</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535628</v>
+        <v>227.1367377718105</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535628</v>
+        <v>227.1367377718105</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>227.1367377718105</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>227.1367377718105</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>71.65818673330452</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008358</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X31" t="n">
-        <v>1848.237780791341</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="Y31" t="n">
-        <v>1625.125719607984</v>
+        <v>397.3418557058213</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2058.57031924742</v>
+        <v>1530.670136571905</v>
       </c>
       <c r="C32" t="n">
-        <v>1665.394817750351</v>
+        <v>1137.494635074836</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>1137.494635074836</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>1137.494635074836</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>1920.147110703377</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2268.334602834899</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="Y32" t="n">
-        <v>2058.57031924742</v>
+        <v>1931.164882283302</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6773,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N33" t="n">
         <v>1443.506853769801</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.31297010154361</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C34" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D34" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E34" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885706</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6880,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V34" t="n">
-        <v>682.7806474639203</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W34" t="n">
-        <v>399.450245395098</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X34" t="n">
-        <v>165.3699231780811</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1179.210445219441</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C35" t="n">
-        <v>786.0349437223717</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D35" t="n">
-        <v>400.5938149390395</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>173.6308686433316</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>173.6308686433316</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L35" t="n">
-        <v>666.9511603618604</v>
+        <v>685.2830347289005</v>
       </c>
       <c r="M35" t="n">
-        <v>1212.952060406441</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N35" t="n">
-        <v>1740.763344043903</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O35" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2322.008616921574</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>2322.008616921574</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1951.009581889861</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.195900010237</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="Y35" t="n">
-        <v>1579.705190930838</v>
+        <v>1165.066267743519</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5108437565973</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7117,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T37" t="n">
-        <v>510.2248569938795</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U37" t="n">
-        <v>224.7860652357804</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V37" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>307.4482789898337</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="C38" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="D38" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E38" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L38" t="n">
         <v>540.6332618200724</v>
@@ -7187,37 +7189,37 @@
         <v>1614.445445502115</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S38" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T38" t="n">
-        <v>1975.634347577648</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U38" t="n">
-        <v>1719.881618012246</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V38" t="n">
-        <v>1377.774808715765</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W38" t="n">
-        <v>1377.774808715765</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X38" t="n">
-        <v>988.3222036488215</v>
+        <v>922.895892954585</v>
       </c>
       <c r="Y38" t="n">
-        <v>988.3222036488215</v>
+        <v>922.895892954585</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>272.0433369124336</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>272.0433369124336</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>272.0433369124336</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7360,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>427.6021490532311</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y40" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.657193557198</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="C41" t="n">
-        <v>1745.657193557198</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D41" t="n">
-        <v>1360.216064773866</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E41" t="n">
-        <v>957.6325398904103</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F41" t="n">
-        <v>540.738101420388</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M41" t="n">
-        <v>1231.283934773481</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T41" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U41" t="n">
-        <v>2142.147902636597</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="V41" t="n">
-        <v>2142.147902636597</v>
+        <v>1729.796052500818</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.147902636597</v>
+        <v>1358.797017469106</v>
       </c>
       <c r="X41" t="n">
-        <v>2142.147902636597</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="Y41" t="n">
-        <v>1745.657193557198</v>
+        <v>969.3444124021627</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L42" t="n">
-        <v>960.2874035090854</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="M42" t="n">
-        <v>1545.785408515688</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N42" t="n">
-        <v>2131.28341352229</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>909.9230322771011</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>909.9230322771011</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>909.9230322771011</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>624.4842405190021</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V43" t="n">
-        <v>358.5048953398264</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W43" t="n">
-        <v>358.5048953398264</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X43" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1541.71227721636</v>
+        <v>1377.429472801477</v>
       </c>
       <c r="C44" t="n">
-        <v>1148.536775719291</v>
+        <v>984.2539713044079</v>
       </c>
       <c r="D44" t="n">
-        <v>763.0956469359583</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="E44" t="n">
-        <v>360.5121220525028</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303387</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V44" t="n">
-        <v>2327.655591362702</v>
+        <v>1985.54878206622</v>
       </c>
       <c r="W44" t="n">
-        <v>2327.655591362702</v>
+        <v>1614.549747034507</v>
       </c>
       <c r="X44" t="n">
-        <v>1938.202986295759</v>
+        <v>1377.429472801477</v>
       </c>
       <c r="Y44" t="n">
-        <v>1541.71227721636</v>
+        <v>1377.429472801477</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>1701.875066013061</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
         <v>2341.731461975244</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7828,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>691.8442053644512</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>691.8442053644512</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U46" t="n">
-        <v>691.8442053644512</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V46" t="n">
-        <v>691.8442053644512</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M2" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7997,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8060,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>395.3134182086922</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>553.2668652653155</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>301.2346582324079</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>394.3609707612337</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720901</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.8528328367281</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389944</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585533</v>
+        <v>263.5850982253572</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>363.2059172909298</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>344.5555886567312</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8939,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>230.2980308590267</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9167,7 +9169,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9410,10 +9412,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9486,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9644,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>296.0083050530727</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9723,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>92.83741255226282</v>
+        <v>265.8235510992399</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9875,10 +9877,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9887,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>308.5636983559933</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10112,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10124,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>223.8267004481029</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>349.2438226594818</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617826</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10352,7 +10354,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>242.7955693701908</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10428,16 +10430,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N33" t="n">
-        <v>415.8062469585524</v>
+        <v>581.2880043687411</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>245.273674853243</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
@@ -10604,7 +10606,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>312.6943406142584</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>301.5486891608481</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10835,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>277.8952841518213</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843445</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11069,16 +11071,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>312.0396197609155</v>
+        <v>633.959285572871</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>575.0303520342798</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>674.5394322581651</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11300,7 +11302,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>427.440794103012</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>151.5659933015355</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34.51198043139732</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22556,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>31.73789671649558</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22607,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22710,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>69.10327304716614</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>59.6812912986459</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22844,13 +22846,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>75.97706831454917</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22993,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>268.0789759259492</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>100.5904422735354</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -23078,16 +23080,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>264.9484845024339</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>48.80965324550067</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>382.968536039974</v>
+        <v>4.29348625511858</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>88.518398017143</v>
       </c>
       <c r="H17" t="n">
-        <v>27.77390045081745</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>123.269409138885</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23984,7 +23986,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24023,13 +24025,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>159.4337077171147</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24178,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24187,7 +24189,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,13 +24256,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>233.4647619363011</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>73.78529404966059</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24376,13 +24378,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -24412,7 +24414,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
@@ -24421,16 +24423,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>207.2896208938744</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>227.8352342700394</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>219.4720129488776</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24610,7 +24612,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>28.01771347006105</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -24619,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>65.73198240919206</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24655,7 +24657,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>61.35098294809393</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>186.6709099647037</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>9.188072053037416</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24853,10 +24855,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>107.6617166438496</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200.2727393862735</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24983,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.51839801714198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>45.9211138417275</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25132,16 +25134,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>48.80965324549999</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25169,7 +25171,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25208,13 +25210,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>209.9917129956978</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25327,13 +25329,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>58.22777831016568</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>87.62118754448957</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>194.7640049285289</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25451,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>340.1299816714355</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25555,7 +25557,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25564,10 +25566,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>63.20418349463274</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25600,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25628,25 +25630,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>178.861556029159</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>378.336213618855</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.21338871141378</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
@@ -25840,16 +25842,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>102.6583336538724</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>150.8090075255741</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26032,19 +26034,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>69.10327304716648</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666743.4503802073</v>
+        <v>666743.4503802075</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666743.4503802079</v>
+        <v>666743.4503802073</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802075</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666743.4503802079</v>
+        <v>666743.4503802075</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666743.4503802076</v>
+        <v>666743.4503802075</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802072</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666743.4503802079</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666743.4503802076</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666743.4503802076</v>
+        <v>666743.450380207</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802073</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>158101.391659894</v>
       </c>
       <c r="C2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="D2" t="n">
         <v>158101.391659894</v>
@@ -26335,25 +26337,25 @@
         <v>158101.3916598939</v>
       </c>
       <c r="J2" t="n">
+        <v>158101.391659894</v>
+      </c>
+      <c r="K2" t="n">
+        <v>158101.391659894</v>
+      </c>
+      <c r="L2" t="n">
         <v>158101.3916598939</v>
-      </c>
-      <c r="K2" t="n">
-        <v>158101.3916598939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>158101.391659894</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="N2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="O2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="P2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="C4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.204443371</v>
       </c>
       <c r="E4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="F4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="G4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="H4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.204443371</v>
       </c>
       <c r="I4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="J4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="K4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="L4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.204443371</v>
       </c>
       <c r="M4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.204443371</v>
       </c>
       <c r="N4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.204443371</v>
       </c>
       <c r="O4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="P4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144479.0760523952</v>
+        <v>-144479.076052395</v>
       </c>
       <c r="C6" t="n">
+        <v>53716.72993934981</v>
+      </c>
+      <c r="D6" t="n">
         <v>53716.72993934984</v>
       </c>
-      <c r="D6" t="n">
-        <v>53716.72993934987</v>
-      </c>
       <c r="E6" t="n">
-        <v>87344.32993934987</v>
+        <v>87344.32993934983</v>
       </c>
       <c r="F6" t="n">
+        <v>87344.32993934989</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87344.3299393498</v>
+      </c>
+      <c r="H6" t="n">
         <v>87344.32993934985</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>87344.32993934977</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-67395.1044262535</v>
+      </c>
+      <c r="K6" t="n">
+        <v>87344.32993934989</v>
+      </c>
+      <c r="L6" t="n">
         <v>87344.32993934976</v>
-      </c>
-      <c r="H6" t="n">
-        <v>87344.32993934987</v>
-      </c>
-      <c r="I6" t="n">
-        <v>87344.32993934979</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-67395.10442625367</v>
-      </c>
-      <c r="K6" t="n">
-        <v>87344.32993934979</v>
-      </c>
-      <c r="L6" t="n">
-        <v>87344.32993934985</v>
       </c>
       <c r="M6" t="n">
         <v>87344.32993934987</v>
       </c>
       <c r="N6" t="n">
-        <v>87344.32993934987</v>
+        <v>87344.32993934993</v>
       </c>
       <c r="O6" t="n">
-        <v>87344.32993934982</v>
+        <v>87344.3299393498</v>
       </c>
       <c r="P6" t="n">
-        <v>87344.32993934987</v>
+        <v>87344.3299393498</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34702,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M2" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34717,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>302.9262961593802</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>151.5096066346806</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>244.7971333371374</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832013</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.7944296574907</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412671</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043866</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>209.9577475604382</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>259.1834758025645</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>144.9259180048601</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36130,10 +36132,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.5096066346805</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>7.465299698096163</v>
+        <v>180.4514382450733</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066814</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36844,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>74.26286302400655</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>259.1834758025636</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728937</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>98.29687095179861</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N33" t="n">
-        <v>330.4341341043857</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>127.5938369108969</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>168.1956421958662</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066815</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37555,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>127.5938369108961</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301779</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37789,16 +37791,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>162.9211284231314</v>
+        <v>484.8407942350869</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>484.9700051773615</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088532</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38020,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>274.1926243725203</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736885</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372593.4751748556</v>
+        <v>366885.3193669695</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462391</v>
+        <v>3854815.050462386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330059</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7709636.479155215</v>
+        <v>7709636.479155217</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>354.7317660507014</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>157.7322018117129</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -746,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.082025980221</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>86.64940239199063</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -910,7 +910,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>80.7809347759742</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>316.5487336740557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.305228430347</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>312.1350518117866</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>138.8978735030923</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1347,16 +1347,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>72.46646706205534</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>254.6210691929066</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>336.7484257707731</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.082025980221</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -1469,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>5.901147974459909</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1615,16 +1615,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>408.4320078302034</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>74.63375956457119</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>320.5127299397338</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.42543431588494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.61153143263809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>278.0941181335097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.7480363891204</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>206.4502314363189</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>19.73044033344624</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>59.22992397392562</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>87.95308749070819</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>162.1147045466214</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>197.5950444853766</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>21.69514016350492</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>171.0705345885737</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>205.8548920239012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.10176446544332</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>212.4527546990485</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>104.9979586872805</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.4348246626608</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>8.702755099425501</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>77.55354822590247</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>43.20348927404955</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>95.69598721795528</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>154.837987690286</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -3559,19 +3559,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>45.42809734483827</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>207.4441370379537</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>196.8812328434282</v>
       </c>
       <c r="C41" t="n">
-        <v>210.3821904529397</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>26.73494282296133</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>26.94368671266167</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>234.7490714906996</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.2114101877278</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="C2" t="n">
-        <v>449.8964949849991</v>
+        <v>1008.973993730366</v>
       </c>
       <c r="D2" t="n">
-        <v>449.8964949849991</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154359</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>206.6384264770112</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712866</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415867</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W2" t="n">
-        <v>1994.649470045467</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X2" t="n">
-        <v>1605.196864978524</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y2" t="n">
-        <v>1208.706155899125</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
         <v>429.4892645340348</v>
@@ -4403,34 +4403,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>745.9259573278729</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
         <v>2341.731461975244</v>
@@ -4451,10 +4451,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>1951.406783011507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.152729110953</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072447</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709756</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2038.931431892306</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>2038.931431892306</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>2038.931431892306</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V4" t="n">
-        <v>2038.931431892306</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>2038.931431892306</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1645.407563735423</v>
+        <v>948.3878372691368</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.232062238354</v>
+        <v>948.3878372691368</v>
       </c>
       <c r="D5" t="n">
-        <v>866.7909334550213</v>
+        <v>948.3878372691368</v>
       </c>
       <c r="E5" t="n">
-        <v>464.2074085715658</v>
+        <v>545.8043123856812</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>128.909873915659</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N5" t="n">
-        <v>1590.266290800943</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.615452804709</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y5" t="n">
-        <v>2045.90230944682</v>
+        <v>1348.882582980534</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
@@ -4652,25 +4652,25 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N6" t="n">
-        <v>1549.231189288413</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
         <v>2206.800784875113</v>
@@ -4688,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.217531504962</v>
+        <v>580.789353924969</v>
       </c>
       <c r="C8" t="n">
-        <v>748.0420300078927</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="D8" t="n">
-        <v>362.6009012245604</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="E8" t="n">
-        <v>362.6009012245604</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.797620547389</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362701</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362701</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362701</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X8" t="n">
-        <v>1938.202986295758</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.712277216359</v>
+        <v>981.2840996363659</v>
       </c>
     </row>
     <row r="9">
@@ -4868,19 +4868,19 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171667</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
@@ -4892,19 +4892,19 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805891</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.513125265401</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="C11" t="n">
-        <v>835.3376237683314</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="D11" t="n">
-        <v>449.8964949849991</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>1134.563163268317</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>717.6687247982946</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>304.5059692862978</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>943.648829263616</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1489.649729308197</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X11" t="n">
-        <v>2025.498580056196</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y11" t="n">
-        <v>1629.007870976798</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5229,22 +5229,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>53.27372563130109</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365782</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868713</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085381</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019251</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749184</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>2028.767352998309</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>2028.767352998309</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1639.314747931366</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.648505077179</v>
+        <v>1242.824038851968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1969.157795997781</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.982294500711</v>
+        <v>913.9940326342535</v>
       </c>
       <c r="D17" t="n">
-        <v>1190.541165717379</v>
+        <v>913.9940326342535</v>
       </c>
       <c r="E17" t="n">
-        <v>787.9576408339233</v>
+        <v>511.410507750798</v>
       </c>
       <c r="F17" t="n">
-        <v>371.063202363901</v>
+        <v>511.410507750798</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>98.24775223880113</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>98.24775223880113</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y17" t="n">
-        <v>1969.157795997781</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631988</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N18" t="n">
         <v>1443.506853769801</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>663.3212008849971</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>145.9104765991578</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>825.9296003819453</v>
+        <v>1147.694083084829</v>
       </c>
       <c r="C20" t="n">
-        <v>432.7540988848759</v>
+        <v>1147.694083084829</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154359</v>
+        <v>1147.694083084829</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154359</v>
+        <v>745.1105582013736</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>328.2161197313513</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>328.2161197313513</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
         <v>191.9627430103717</v>
@@ -5761,43 +5761,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.367660239684</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.915055172741</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.424346093342</v>
+        <v>1548.188828796226</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>713.0409408113302</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V22" t="n">
-        <v>713.0409408113302</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W22" t="n">
-        <v>504.5053535019172</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X22" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1177.734277544119</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C23" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D23" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U23" t="n">
-        <v>2345.718767366628</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V23" t="n">
-        <v>2345.718767366628</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W23" t="n">
-        <v>1974.719732334915</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="X23" t="n">
-        <v>1974.719732334915</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.229023255516</v>
+        <v>1279.953688967018</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.116207068685</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N24" t="n">
-        <v>1614.763130931308</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O24" t="n">
-        <v>2131.283413522289</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6177,22 +6177,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>859.9184901272292</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>625.8381679102123</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>402.7261067268556</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1767.788966215297</v>
+        <v>1239.092355893942</v>
       </c>
       <c r="C26" t="n">
-        <v>1767.788966215297</v>
+        <v>845.9168543968727</v>
       </c>
       <c r="D26" t="n">
-        <v>1604.036739400527</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.453214517072</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>318.7636682303378</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>864.7645682749184</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1392.57585191238</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.615452804709</v>
+        <v>1885.656118784443</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936231</v>
+        <v>2233.843610915965</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511778</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>1999.543995992598</v>
       </c>
       <c r="W26" t="n">
-        <v>1767.788966215297</v>
+        <v>1628.544960960885</v>
       </c>
       <c r="X26" t="n">
-        <v>1767.788966215297</v>
+        <v>1239.092355893942</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.788966215297</v>
+        <v>1239.092355893942</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>643.9940382195842</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.011453636999</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="C28" t="n">
-        <v>114.011453636999</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="D28" t="n">
-        <v>114.011453636999</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6411,25 +6411,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V28" t="n">
-        <v>397.3418557058213</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W28" t="n">
-        <v>114.011453636999</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X28" t="n">
-        <v>114.011453636999</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.011453636999</v>
+        <v>224.7860652357804</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>371.396020535053</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="C29" t="n">
-        <v>371.396020535053</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="D29" t="n">
-        <v>371.396020535053</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="E29" t="n">
-        <v>371.396020535053</v>
+        <v>637.005928358004</v>
       </c>
       <c r="F29" t="n">
-        <v>371.396020535053</v>
+        <v>220.1114898879817</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
         <v>191.9627430103717</v>
@@ -6469,46 +6469,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M29" t="n">
-        <v>1590.266290800943</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N29" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863168</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U29" t="n">
-        <v>1681.888704297767</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V29" t="n">
-        <v>1339.781895001286</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W29" t="n">
-        <v>968.7828599695731</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X29" t="n">
-        <v>579.3302549026299</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="Y29" t="n">
-        <v>371.396020535053</v>
+        <v>1039.58945324146</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L30" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M30" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N30" t="n">
-        <v>2134.729194295015</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X30" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>227.1367377718105</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>227.1367377718105</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>227.1367377718105</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>227.1367377718105</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>227.1367377718105</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>71.65818673330452</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6660,13 +6660,13 @@
         <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>397.3418557058213</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1530.670136571905</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C32" t="n">
-        <v>1137.494635074836</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D32" t="n">
-        <v>1137.494635074836</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E32" t="n">
-        <v>1137.494635074836</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F32" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G32" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H32" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>406.2953261290054</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M32" t="n">
-        <v>952.2962261735861</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N32" t="n">
-        <v>1480.107509811048</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O32" t="n">
-        <v>1920.147110703377</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2268.334602834899</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2327.655591362701</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>2327.655591362701</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W32" t="n">
-        <v>2327.655591362701</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X32" t="n">
-        <v>2327.655591362701</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1931.164882283302</v>
+        <v>1242.824038851968</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>952.550121170372</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.0359480608643</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C34" t="n">
-        <v>515.8308301268535</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="D34" t="n">
-        <v>360.1977170293682</v>
+        <v>224.3576857186895</v>
       </c>
       <c r="E34" t="n">
-        <v>204.6389048885706</v>
+        <v>224.3576857186895</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>824.8590032756731</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>824.8590032756731</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W34" t="n">
-        <v>824.8590032756731</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X34" t="n">
-        <v>824.8590032756731</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.8590032756731</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>764.5715220321224</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="C35" t="n">
-        <v>371.396020535053</v>
+        <v>955.7070814834642</v>
       </c>
       <c r="D35" t="n">
-        <v>371.396020535053</v>
+        <v>955.7070814834642</v>
       </c>
       <c r="E35" t="n">
-        <v>371.396020535053</v>
+        <v>955.7070814834642</v>
       </c>
       <c r="F35" t="n">
-        <v>371.396020535053</v>
+        <v>538.812643013442</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>125.6498875014451</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>125.6498875014451</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>685.2830347289005</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1231.283934773481</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1759.095218410943</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
-        <v>2199.134819303272</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
-        <v>2199.134819303272</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U35" t="n">
-        <v>2322.008616921574</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V35" t="n">
-        <v>2322.008616921574</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W35" t="n">
-        <v>1951.009581889861</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X35" t="n">
-        <v>1561.556976822918</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y35" t="n">
-        <v>1165.066267743519</v>
+        <v>1348.882582980534</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L36" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1229.492043226186</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7119,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U37" t="n">
-        <v>824.8590032756731</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V37" t="n">
-        <v>824.8590032756731</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5286012068507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>922.895892954585</v>
+        <v>1140.655979072374</v>
       </c>
       <c r="C38" t="n">
-        <v>922.895892954585</v>
+        <v>1140.655979072374</v>
       </c>
       <c r="D38" t="n">
-        <v>922.895892954585</v>
+        <v>755.2148502890414</v>
       </c>
       <c r="E38" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F38" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G38" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H38" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L38" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M38" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>1681.888704297767</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V38" t="n">
-        <v>1339.781895001286</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W38" t="n">
-        <v>968.7828599695731</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X38" t="n">
-        <v>922.895892954585</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y38" t="n">
-        <v>922.895892954585</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
         <v>160.427952321271</v>
@@ -7262,7 +7262,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1549.231189288413</v>
+        <v>1545.785408515687</v>
       </c>
       <c r="N39" t="n">
         <v>2131.283413522289</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7359,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T40" t="n">
-        <v>882.0615091076409</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U40" t="n">
-        <v>596.6227173495417</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V40" t="n">
-        <v>330.643372170366</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="W40" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>969.3444124021627</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C41" t="n">
         <v>756.8371493183852</v>
@@ -7405,58 +7405,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2071.9028617973</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V41" t="n">
-        <v>1729.796052500818</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W41" t="n">
-        <v>1358.797017469106</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X41" t="n">
-        <v>969.3444124021627</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y41" t="n">
-        <v>969.3444124021627</v>
+        <v>1348.882582980534</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>47.31297010154359</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>623.6437572083082</v>
+        <v>1545.785408515687</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.14176221491</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P42" t="n">
         <v>2131.283413522289</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>542.8358228773194</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>387.2027097798342</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>231.6438976390367</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>74.3179628520096</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>830.7030395665587</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V43" t="n">
-        <v>564.7236943873829</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>713.0409408113302</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1377.429472801477</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="C44" t="n">
-        <v>984.2539713044079</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="D44" t="n">
-        <v>598.8128425210756</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="E44" t="n">
-        <v>598.8128425210756</v>
+        <v>904.5860092478674</v>
       </c>
       <c r="F44" t="n">
-        <v>598.8128425210756</v>
+        <v>487.6915707778452</v>
       </c>
       <c r="G44" t="n">
-        <v>185.6500870090788</v>
+        <v>74.52881526584832</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6500870090788</v>
+        <v>74.52881526584832</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303378</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V44" t="n">
-        <v>1985.54878206622</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W44" t="n">
-        <v>1614.549747034507</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X44" t="n">
-        <v>1377.429472801477</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y44" t="n">
-        <v>1377.429472801477</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818107</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M45" t="n">
-        <v>1549.231189288413</v>
+        <v>745.9259573278732</v>
       </c>
       <c r="N45" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7836,22 +7836,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>330.643372170366</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7996,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>277.8952841518222</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>351.5705978518764</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2668652653155</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>394.3609707612337</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>277.8952841518222</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8300,16 +8300,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>507.6329599720901</v>
+        <v>404.6714255192738</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8461,19 +8461,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>652.9391957389944</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>395.3134182086922</v>
       </c>
       <c r="N9" t="n">
-        <v>263.5850982253572</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>549.9186043019891</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N15" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9178,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9409,19 +9409,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P21" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,16 +9646,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>202.8119771871974</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>265.8235510992399</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9877,16 +9877,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
         <v>594.0482827698827</v>
@@ -9895,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>277.6349551468923</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>308.5636983559933</v>
+        <v>509.5709760063966</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10117,22 +10117,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>682.2612020826953</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O29" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>325.9393879617826</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10351,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>242.7955693701908</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>581.2880043687411</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10600,13 +10600,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>312.6943406142584</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10667,16 +10667,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N36" t="n">
-        <v>301.5486891608481</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10828,7 +10828,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10840,7 +10840,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>277.8952841518213</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10910,10 +10910,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>680.3186616794895</v>
       </c>
       <c r="N39" t="n">
-        <v>673.3036524843445</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11071,10 +11071,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>633.959285572871</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>674.5394322581651</v>
+        <v>680.3186616794895</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11299,13 +11299,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>427.4407941030111</v>
+        <v>616.3484143223238</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11378,22 +11378,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>151.5659933015355</v>
+        <v>553.266865265316</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.51198043139732</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>251.298926145164</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22597,7 +22597,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22609,10 +22609,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22716,19 +22716,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>69.10327304716614</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>328.2501931809027</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22834,25 +22834,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>75.97706831454917</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -22998,19 +22998,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>14.19186961778712</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>100.5904422735354</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>270.1332544537845</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>190.8530846653287</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>66.22115073626762</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>48.80965324550067</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>225.8383710203868</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>4.29348625511858</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>264.0519816389456</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>88.518398017143</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>86.52831142257487</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23943,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.269409138885</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>42.74810179566458</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>17.54100829227502</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>74.04686661181526</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>233.4647619363011</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>308.0591207074698</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>192.544010557426</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>219.4720129488776</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24493,22 +24493,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>141.0906967181402</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24606,10 +24606,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>132.3816418030055</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24621,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>65.73198240919206</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24651,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24688,16 +24688,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>237.9605933683031</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>186.6709099647037</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24855,10 +24855,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>107.6617166438496</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>200.2727393862735</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>287.5278433013244</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.9211138417275</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.0499203397313</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25131,13 +25131,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>59.40019751255734</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>209.9917129956978</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25329,13 +25329,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>58.22777831016568</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>243.7197019443349</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>340.1299816714355</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25599,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>73.05296101018047</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>199.6085654108547</v>
       </c>
       <c r="C41" t="n">
-        <v>178.861556029159</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25788,19 +25788,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>139.8365705385876</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>165.708020294746</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>110.0100590257981</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>150.8090075255741</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666743.4503802073</v>
+        <v>666743.4503802076</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802075</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802079</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666743.4503802075</v>
+        <v>666743.4503802076</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802076</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666743.4503802072</v>
+        <v>666743.4503802079</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802079</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666743.450380207</v>
+        <v>666743.4503802075</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666743.4503802073</v>
+        <v>666743.4503802077</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802076</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802073</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666743.4503802077</v>
+        <v>666743.4503802076</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>158101.3916598941</v>
+      </c>
+      <c r="C2" t="n">
         <v>158101.391659894</v>
-      </c>
-      <c r="C2" t="n">
-        <v>158101.3916598939</v>
       </c>
       <c r="D2" t="n">
         <v>158101.391659894</v>
@@ -26334,28 +26334,28 @@
         <v>158101.391659894</v>
       </c>
       <c r="I2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="J2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="K2" t="n">
+        <v>158101.3916598941</v>
+      </c>
+      <c r="L2" t="n">
         <v>158101.391659894</v>
-      </c>
-      <c r="L2" t="n">
-        <v>158101.3916598939</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="N2" t="n">
-        <v>158101.3916598941</v>
+        <v>158101.391659894</v>
       </c>
       <c r="O2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="P2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>34799.20444337101</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="E4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="F4" t="n">
         <v>34799.20444337101</v>
@@ -26435,31 +26435,31 @@
         <v>34799.20444337101</v>
       </c>
       <c r="H4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="I4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="J4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="K4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="L4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337103</v>
       </c>
       <c r="M4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="N4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="O4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="P4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144479.076052395</v>
+        <v>-145153.1021786151</v>
       </c>
       <c r="C6" t="n">
-        <v>53716.72993934981</v>
+        <v>53042.70381312983</v>
       </c>
       <c r="D6" t="n">
-        <v>53716.72993934984</v>
+        <v>53042.7038131298</v>
       </c>
       <c r="E6" t="n">
-        <v>87344.32993934983</v>
+        <v>86670.30381312984</v>
       </c>
       <c r="F6" t="n">
-        <v>87344.32993934989</v>
+        <v>86670.30381312981</v>
       </c>
       <c r="G6" t="n">
-        <v>87344.3299393498</v>
+        <v>86670.30381312975</v>
       </c>
       <c r="H6" t="n">
-        <v>87344.32993934985</v>
+        <v>86670.30381312984</v>
       </c>
       <c r="I6" t="n">
-        <v>87344.32993934977</v>
+        <v>86670.30381312978</v>
       </c>
       <c r="J6" t="n">
-        <v>-67395.1044262535</v>
+        <v>-68069.13055247362</v>
       </c>
       <c r="K6" t="n">
-        <v>87344.32993934989</v>
+        <v>86670.30381312987</v>
       </c>
       <c r="L6" t="n">
-        <v>87344.32993934976</v>
+        <v>86670.30381312982</v>
       </c>
       <c r="M6" t="n">
-        <v>87344.32993934987</v>
+        <v>86670.30381312978</v>
       </c>
       <c r="N6" t="n">
-        <v>87344.32993934993</v>
+        <v>86670.30381312984</v>
       </c>
       <c r="O6" t="n">
-        <v>87344.3299393498</v>
+        <v>86670.30381312978</v>
       </c>
       <c r="P6" t="n">
-        <v>87344.3299393498</v>
+        <v>86670.30381312981</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34716,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>127.593836910897</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>259.1834758025645</v>
       </c>
       <c r="N3" t="n">
-        <v>467.8947524111488</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>244.7971333371374</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>127.593836910897</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35020,16 +35020,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>414.9454010832013</v>
+        <v>311.9838666303849</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35181,19 +35181,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>503.2141441412671</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="N9" t="n">
-        <v>178.2129853711906</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>396.6704345714974</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N15" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35898,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36129,19 +36129,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36366,16 +36366,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>113.215041853864</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>180.4514382450733</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36615,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>216.1765763066814</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O29" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>330.4341341043865</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>233.2518290728937</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.29687095179861</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>495.9158915145745</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37320,13 +37320,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.1956421958662</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N36" t="n">
-        <v>216.1765763066815</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37560,7 +37560,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>127.5938369108961</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37630,10 +37630,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>587.9315396301777</v>
       </c>
       <c r="N39" t="n">
-        <v>587.9315396301779</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37791,10 +37791,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>484.8407942350869</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>582.1523102088532</v>
+        <v>587.9315396301777</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>274.1926243725193</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38098,22 +38098,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>66.19388044736885</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
